--- a/Assets/Configs/RawTable/Task.xlsx
+++ b/Assets/Configs/RawTable/Task.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6AF69B-A435-43C5-843F-A605F2CF095C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7128" yWindow="2712" windowWidth="16152" windowHeight="9444" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30720" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -21,127 +15,114 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hasee</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{19AB833B-88DF-4903-9554-A1AC01AD4DAB}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>任务唯一id</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{01BB6240-B633-4C4D-9265-167C962A9BBE}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>任务名称</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{53F07C9F-91AD-4D02-8E0B-BB7E197F72D6}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>前置任务id</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{0751B2C2-6D3F-473E-8957-6946A98E7C94}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>任务种类：
 0建造
-1移动</t>
+1移动
+2获得金币
+3获得物品
+4旋转建筑</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{4A5133E7-B885-4674-8FC6-237E915E7534}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>完成任务需操作的物品id</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{4F3AFCD2-85D3-484F-B6D3-834A4A132A76}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>完成任务需操作的物品数量</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{298CB834-7871-4B03-A0F5-FD388414878A}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>奖励组id</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{0CFB2CAD-8212-4BB0-8C01-A2A486CB23AB}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>任务详细描述</t>
@@ -153,20 +134,18 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hasee</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{14FC9E37-11E3-4BCD-897F-43BBB0E1E0BD}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>奖励种类：
@@ -181,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
   <si>
     <t>TaskID</t>
   </si>
@@ -207,64 +186,152 @@
     <t>Content</t>
   </si>
   <si>
-    <t>建造民居</t>
+    <t>开垦农田</t>
+  </si>
+  <si>
+    <t>2,</t>
+  </si>
+  <si>
+    <t>开垦两个农田</t>
+  </si>
+  <si>
+    <t>修建道路</t>
+  </si>
+  <si>
+    <t>4,</t>
+  </si>
+  <si>
+    <t>修建两块道路</t>
+  </si>
+  <si>
+    <t>修建民居-小型</t>
+  </si>
+  <si>
+    <t>7,</t>
+  </si>
+  <si>
+    <t>1,</t>
+  </si>
+  <si>
+    <t>建造一个小型房屋</t>
+  </si>
+  <si>
+    <t>移动建筑</t>
+  </si>
+  <si>
+    <t>长按移动刚才建造的房屋</t>
+  </si>
+  <si>
+    <t>添加马车</t>
+  </si>
+  <si>
+    <t>3,</t>
+  </si>
+  <si>
+    <t>建造两个马车</t>
+  </si>
+  <si>
+    <t>旋转马车</t>
+  </si>
+  <si>
+    <t>将建造的马车任意旋转一个</t>
+  </si>
+  <si>
+    <t>获得建材</t>
+  </si>
+  <si>
+    <t>0,</t>
+  </si>
+  <si>
+    <t>200,</t>
+  </si>
+  <si>
+    <t>继续建造农田（临时），获得200木头</t>
+  </si>
+  <si>
+    <t>获得金币</t>
+  </si>
+  <si>
+    <t>获得200金币</t>
+  </si>
+  <si>
+    <t>修建民居-中型</t>
+  </si>
+  <si>
+    <t>6,8,</t>
+  </si>
+  <si>
+    <t>2,2,</t>
+  </si>
+  <si>
+    <t>修建两个中型民居1和中型民居2</t>
+  </si>
+  <si>
+    <t>修建民居-大型</t>
+  </si>
+  <si>
+    <t>9,</t>
+  </si>
+  <si>
+    <t>修建一个大型民居</t>
+  </si>
+  <si>
+    <t>1000,</t>
+  </si>
+  <si>
+    <t>获得1000金币</t>
+  </si>
+  <si>
+    <t>修建宝塔</t>
+  </si>
+  <si>
+    <t>修建地标宝塔</t>
+  </si>
+  <si>
+    <t>RewardID</t>
+  </si>
+  <si>
+    <t>RewardType</t>
+  </si>
+  <si>
+    <t>ItemID</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>100,</t>
   </si>
   <si>
     <t>6,</t>
   </si>
   <si>
-    <t>1,</t>
-  </si>
-  <si>
-    <t>建造一个民居02</t>
-  </si>
-  <si>
-    <t>铺设道路</t>
-  </si>
-  <si>
-    <t>4,</t>
-  </si>
-  <si>
-    <t>2,</t>
-  </si>
-  <si>
-    <t>铺设两个道路</t>
-  </si>
-  <si>
-    <t>开垦农田</t>
-  </si>
-  <si>
-    <t>RewardID</t>
-  </si>
-  <si>
-    <t>RewardType</t>
-  </si>
-  <si>
-    <t>ItemID</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>0,</t>
-  </si>
-  <si>
-    <t>100,</t>
-  </si>
-  <si>
-    <t>0,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>8,</t>
+  </si>
+  <si>
+    <t>1500,</t>
+  </si>
+  <si>
+    <t>80,</t>
+  </si>
+  <si>
+    <t>3000,</t>
+  </si>
+  <si>
+    <t>5,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,45 +340,351 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -319,9 +692,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -329,55 +944,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:H4" totalsRowShown="0">
-  <autoFilter ref="A1:H4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H13" totalsRowShown="0">
+  <autoFilter ref="A1:H13"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TaskID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PreviousID"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="TaskType"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="TargetID"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="TargetNum"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Reward"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Content"/>
+    <tableColumn id="1" name="TaskID"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="PreviousID"/>
+    <tableColumn id="4" name="TaskType"/>
+    <tableColumn id="5" name="TargetID"/>
+    <tableColumn id="6" name="TargetNum"/>
+    <tableColumn id="7" name="Reward"/>
+    <tableColumn id="8" name="Content"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:D3" totalsRowShown="0">
-  <autoFilter ref="A1:D3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:D13" totalsRowShown="0">
+  <autoFilter ref="A1:D13"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="RewardID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="RewardType"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ItemID"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Count"/>
+    <tableColumn id="1" name="RewardID"/>
+    <tableColumn id="2" name="RewardType"/>
+    <tableColumn id="3" name="ItemID"/>
+    <tableColumn id="4" name="Count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -635,30 +1290,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" customWidth="1"/>
-    <col min="8" max="8" width="27.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="12.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="11.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="10.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="13.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="9.77777777777778" customWidth="1"/>
+    <col min="8" max="8" width="37.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -684,7 +1339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -701,21 +1356,21 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>1000</v>
@@ -724,117 +1379,492 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>1003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>1002</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>1004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>1003</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>1005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>1004</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>1006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>1005</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>1007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>1005</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>1008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>1005</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>1009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>1008</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>1010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>1009</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>1011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>1009</v>
+      </c>
+      <c r="D13">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>16</v>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="14.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="9.11111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Assets/Configs/RawTable/Task.xlsx
+++ b/Assets/Configs/RawTable/Task.xlsx
@@ -1,26 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A491E1EA-3E6C-4D8D-AF0A-1B9768BC5FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="15360" windowHeight="13595"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
     <sheet name="RewardGroup" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hasee</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -37,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -82,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -108,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -121,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -139,12 +158,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hasee</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -159,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -180,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="95">
   <si>
     <t>TaskID</t>
   </si>
@@ -462,19 +481,17 @@
   </si>
   <si>
     <t>9,</t>
+  </si>
+  <si>
+    <t>FeatureOpen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,351 +500,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -835,251 +537,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1087,95 +547,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H27" totalsRowShown="0">
-  <autoFilter ref="A1:H27"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="TaskID"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="PreviousID"/>
-    <tableColumn id="4" name="TaskType"/>
-    <tableColumn id="5" name="TargetID"/>
-    <tableColumn id="6" name="TargetNum"/>
-    <tableColumn id="7" name="Reward"/>
-    <tableColumn id="8" name="Content"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:I27" totalsRowShown="0">
+  <autoFilter ref="A1:I27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TaskID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PreviousID"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="TaskType"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="TargetID"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="TargetNum"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Reward"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Content"/>
+    <tableColumn id="10" xr3:uid="{E58C0B84-9570-48B7-87DA-73EAA1437CDD}" name="FeatureOpen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:D33" totalsRowShown="0">
-  <autoFilter ref="A1:D33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:D33" totalsRowShown="0">
+  <autoFilter ref="A1:D33" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="RewardID"/>
-    <tableColumn id="2" name="RewardType"/>
-    <tableColumn id="3" name="ItemID"/>
-    <tableColumn id="4" name="Count"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="RewardID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="RewardType"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ItemID"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1433,30 +850,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="12.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="11.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="10.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="16.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="9.77777777777778" customWidth="1"/>
-    <col min="8" max="8" width="47.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" customWidth="1"/>
+    <col min="8" max="8" width="47.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1481,8 +899,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="I1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -1504,8 +925,11 @@
       <c r="G2">
         <v>104</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>11</v>
+      </c>
+      <c r="I2">
+        <v>-1</v>
       </c>
       <c r="J2">
         <f>_xlfn.MAXIFS(表1[TaskID],表1[TaskID],"&lt;2000")+1</f>
@@ -1520,7 +944,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -1542,11 +966,14 @@
       <c r="G3">
         <v>107</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -1571,8 +998,11 @@
       <c r="H4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -1597,12 +1027,15 @@
       <c r="H5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2001</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6">
@@ -1620,15 +1053,18 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2002</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7">
@@ -1637,24 +1073,27 @@
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>25</v>
       </c>
       <c r="G7">
         <v>106</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2003</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8">
@@ -1663,20 +1102,23 @@
       <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
         <v>29</v>
       </c>
       <c r="G8">
         <v>109</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1004</v>
       </c>
@@ -1689,7 +1131,7 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
       <c r="F9" t="s">
@@ -1701,12 +1143,15 @@
       <c r="H9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3001</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
@@ -1715,24 +1160,27 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>21</v>
       </c>
       <c r="G10">
         <v>10</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3002</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>38</v>
       </c>
       <c r="C11">
@@ -1741,7 +1189,7 @@
       <c r="D11">
         <v>4</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>36</v>
       </c>
       <c r="F11" t="s">
@@ -1750,11 +1198,14 @@
       <c r="G11">
         <v>110</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -1767,7 +1218,7 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>24</v>
       </c>
       <c r="F12" t="s">
@@ -1779,8 +1230,11 @@
       <c r="H12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2005</v>
       </c>
@@ -1793,24 +1247,27 @@
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>43</v>
       </c>
       <c r="G13">
         <v>11</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3003</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>45</v>
       </c>
       <c r="C14">
@@ -1819,20 +1276,23 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>10</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2006</v>
       </c>
@@ -1854,11 +1314,14 @@
       <c r="G15">
         <v>108</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4001</v>
       </c>
@@ -1874,17 +1337,20 @@
       <c r="E16" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>52</v>
       </c>
       <c r="G16">
         <v>12</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1005</v>
       </c>
@@ -1909,8 +1375,11 @@
       <c r="H17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4002</v>
       </c>
@@ -1926,17 +1395,20 @@
       <c r="E18" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>29</v>
       </c>
       <c r="G18">
         <v>100</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1006</v>
       </c>
@@ -1958,15 +1430,18 @@
       <c r="G19">
         <v>11</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4003</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>60</v>
       </c>
       <c r="C20">
@@ -1978,21 +1453,24 @@
       <c r="E20" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>10</v>
       </c>
       <c r="G20">
         <v>15</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4004</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>62</v>
       </c>
       <c r="C21">
@@ -2004,17 +1482,20 @@
       <c r="E21" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>10</v>
       </c>
       <c r="G21">
         <v>112</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2007</v>
       </c>
@@ -2027,7 +1508,7 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>65</v>
       </c>
       <c r="F22" t="s">
@@ -2039,8 +1520,11 @@
       <c r="H22" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2008</v>
       </c>
@@ -2056,17 +1540,20 @@
       <c r="E23" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>29</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1007</v>
       </c>
@@ -2088,11 +1575,14 @@
       <c r="G24">
         <v>115</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1008</v>
       </c>
@@ -2117,8 +1607,11 @@
       <c r="H25" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1009</v>
       </c>
@@ -2143,8 +1636,11 @@
       <c r="H26" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1010</v>
       </c>
@@ -2169,34 +1665,36 @@
       <c r="H27" t="s">
         <v>81</v>
       </c>
+      <c r="I27">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="14.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="9.11111111111111" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>82</v>
       </c>
@@ -2210,7 +1708,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2224,7 +1722,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2234,11 +1732,11 @@
       <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2248,11 +1746,11 @@
       <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2262,67 +1760,67 @@
       <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -2332,11 +1830,11 @@
       <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -2346,11 +1844,11 @@
       <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -2360,11 +1858,11 @@
       <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -2374,11 +1872,11 @@
       <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2388,11 +1886,11 @@
       <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -2406,264 +1904,264 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>100</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>101</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>102</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>103</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>104</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>105</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>106</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>107</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>108</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>109</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>110</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>111</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>112</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>113</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>114</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>115</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>116</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>117</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Assets/Configs/RawTable/Task.xlsx
+++ b/Assets/Configs/RawTable/Task.xlsx
@@ -1,45 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A491E1EA-3E6C-4D8D-AF0A-1B9768BC5FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30720" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
     <sheet name="RewardGroup" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hasee</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +37,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -158,12 +139,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hasee</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -225,6 +206,9 @@
     <t>Content</t>
   </si>
   <si>
+    <t>FeatureOpen</t>
+  </si>
+  <si>
     <t>修建林场</t>
   </si>
   <si>
@@ -481,17 +465,19 @@
   </si>
   <si>
     <t>9,</t>
-  </si>
-  <si>
-    <t>FeatureOpen</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,36 +486,358 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -537,9 +845,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -547,52 +1097,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:I27" totalsRowShown="0">
-  <autoFilter ref="A1:I27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I27" totalsRowShown="0">
+  <autoFilter ref="A1:I27"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TaskID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PreviousID"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="TaskType"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="TargetID"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="TargetNum"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Reward"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Content"/>
-    <tableColumn id="10" xr3:uid="{E58C0B84-9570-48B7-87DA-73EAA1437CDD}" name="FeatureOpen"/>
+    <tableColumn id="1" name="TaskID"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="PreviousID"/>
+    <tableColumn id="4" name="TaskType"/>
+    <tableColumn id="5" name="TargetID"/>
+    <tableColumn id="6" name="TargetNum"/>
+    <tableColumn id="7" name="Reward"/>
+    <tableColumn id="8" name="Content"/>
+    <tableColumn id="10" name="FeatureOpen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:D33" totalsRowShown="0">
-  <autoFilter ref="A1:D33" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:D33" totalsRowShown="0">
+  <autoFilter ref="A1:D33"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="RewardID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="RewardType"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ItemID"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Count"/>
+    <tableColumn id="1" name="RewardID"/>
+    <tableColumn id="2" name="RewardType"/>
+    <tableColumn id="3" name="ItemID"/>
+    <tableColumn id="4" name="Count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -850,31 +1444,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" customWidth="1"/>
-    <col min="8" max="8" width="47.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="12.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="11.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="10.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="16.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="9.77777777777778" customWidth="1"/>
+    <col min="8" max="8" width="47.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="16.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -900,15 +1494,15 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>-1</v>
@@ -917,16 +1511,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>104</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2">
         <v>-1</v>
@@ -944,12 +1538,12 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>1000</v>
@@ -958,27 +1552,27 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>107</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3">
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>1001</v>
@@ -987,27 +1581,27 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>1002</v>
@@ -1016,27 +1610,27 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>102</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I5">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>2001</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>1003</v>
@@ -1045,27 +1639,27 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>2002</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>2001</v>
@@ -1074,27 +1668,27 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7">
         <v>106</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I7">
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>2003</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>2001</v>
@@ -1103,27 +1697,27 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8">
         <v>109</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I8">
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>1004</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>1003</v>
@@ -1132,27 +1726,27 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9">
         <v>114</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I9">
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>3001</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>1004</v>
@@ -1161,27 +1755,27 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10">
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>3002</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11">
         <v>3001</v>
@@ -1190,27 +1784,27 @@
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11">
         <v>110</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I11">
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>2004</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>3002</v>
@@ -1219,27 +1813,27 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12">
         <v>103</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I12">
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>2005</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>2004</v>
@@ -1248,27 +1842,27 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G13">
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>3003</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14">
         <v>2004</v>
@@ -1277,27 +1871,27 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14">
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>2006</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15">
         <v>3002</v>
@@ -1306,27 +1900,27 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>108</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I15">
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>4001</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16">
         <v>3003</v>
@@ -1335,27 +1929,27 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G16">
         <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I16">
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>1005</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17">
         <v>2006</v>
@@ -1364,27 +1958,27 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17">
         <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I17">
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>4002</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18">
         <v>1005</v>
@@ -1393,27 +1987,27 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18">
         <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I18">
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>1006</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19">
         <v>4002</v>
@@ -1422,27 +2016,27 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I19">
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>4003</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C20">
         <v>1006</v>
@@ -1451,27 +2045,27 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G20">
         <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I20">
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>4004</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21">
         <v>4003</v>
@@ -1480,27 +2074,27 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G21">
         <v>112</v>
       </c>
       <c r="H21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I21">
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>2007</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22">
         <v>4004</v>
@@ -1509,27 +2103,27 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>113</v>
       </c>
       <c r="H22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I22">
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>2008</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C23">
         <v>2007</v>
@@ -1538,27 +2132,27 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I23">
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>1007</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C24">
         <v>2007</v>
@@ -1567,27 +2161,27 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G24">
         <v>115</v>
       </c>
       <c r="H24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I24">
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>1008</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C25">
         <v>1007</v>
@@ -1596,27 +2190,27 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G25">
         <v>116</v>
       </c>
       <c r="H25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I25">
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>1009</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C26">
         <v>1008</v>
@@ -1625,27 +2219,27 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G26">
         <v>117</v>
       </c>
       <c r="H26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I26">
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>1010</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C27">
         <v>2008</v>
@@ -1654,514 +2248,515 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I27">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="14.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="9.11111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>106</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>107</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>109</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>111</v>
       </c>
       <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
         <v>10</v>
       </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
       <c r="D27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>112</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>114</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>115</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>116</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>117</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Assets/Configs/RawTable/Task.xlsx
+++ b/Assets/Configs/RawTable/Task.xlsx
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="85">
   <si>
     <t>TaskID</t>
   </si>
@@ -335,118 +335,88 @@
     <t>200,</t>
   </si>
   <si>
-    <t>继续修缮家园需要更多的木材(获得260木材)</t>
-  </si>
-  <si>
-    <t>获得金币</t>
+    <t>继续修缮家园需要更多的木材</t>
+  </si>
+  <si>
+    <t>修建民居-大型</t>
+  </si>
+  <si>
+    <t>8,</t>
+  </si>
+  <si>
+    <t>修建一个大型民居</t>
+  </si>
+  <si>
+    <t>修建砖厂</t>
+  </si>
+  <si>
+    <t>12,</t>
+  </si>
+  <si>
+    <t>修建一个砖厂</t>
+  </si>
+  <si>
+    <t>获得砖石</t>
+  </si>
+  <si>
+    <t>5,</t>
+  </si>
+  <si>
+    <t>获得100石砖</t>
+  </si>
+  <si>
+    <t>修建商铺</t>
+  </si>
+  <si>
+    <t>13,</t>
+  </si>
+  <si>
+    <t>修建一个商铺</t>
+  </si>
+  <si>
+    <t>修建井1</t>
+  </si>
+  <si>
+    <t>15,</t>
+  </si>
+  <si>
+    <t>修建井2</t>
+  </si>
+  <si>
+    <t>16,</t>
+  </si>
+  <si>
+    <t>修建井3</t>
+  </si>
+  <si>
+    <t>17,</t>
+  </si>
+  <si>
+    <t>修建宝塔</t>
+  </si>
+  <si>
+    <t>修建地标宝塔</t>
+  </si>
+  <si>
+    <t>RewardID</t>
+  </si>
+  <si>
+    <t>RewardType</t>
+  </si>
+  <si>
+    <t>ItemID</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>300,</t>
+  </si>
+  <si>
+    <t>500,</t>
   </si>
   <si>
     <t>800,</t>
-  </si>
-  <si>
-    <t>获得800金币</t>
-  </si>
-  <si>
-    <t>修建民居-大型</t>
-  </si>
-  <si>
-    <t>8,</t>
-  </si>
-  <si>
-    <t>修建一个大型民居</t>
-  </si>
-  <si>
-    <t>获得100金币</t>
-  </si>
-  <si>
-    <t>修建宝塔</t>
-  </si>
-  <si>
-    <t>修建地标宝塔，本版本可体验内容结束</t>
-  </si>
-  <si>
-    <t>？</t>
-  </si>
-  <si>
-    <t>真的结束了吗？</t>
-  </si>
-  <si>
-    <t>下版本可体验内容</t>
-  </si>
-  <si>
-    <t>生产线、道路建造、商城、第二章《修复三井》</t>
-  </si>
-  <si>
-    <t>修建砖厂</t>
-  </si>
-  <si>
-    <t>12,</t>
-  </si>
-  <si>
-    <t>修建一个砖厂</t>
-  </si>
-  <si>
-    <t>获得砖石</t>
-  </si>
-  <si>
-    <t>5,</t>
-  </si>
-  <si>
-    <t>获得100石砖（石头-石砖，进阶建筑材料）</t>
-  </si>
-  <si>
-    <t>修建商铺</t>
-  </si>
-  <si>
-    <t>13,</t>
-  </si>
-  <si>
-    <t>修建一个商铺（收集物转化金币、商城）</t>
-  </si>
-  <si>
-    <t>修建井1</t>
-  </si>
-  <si>
-    <t>15,</t>
-  </si>
-  <si>
-    <t>消耗200木头，200砖石，100竹管修建井1</t>
-  </si>
-  <si>
-    <t>修建井2</t>
-  </si>
-  <si>
-    <t>16,</t>
-  </si>
-  <si>
-    <t>消耗200木头，200砖石，200瓦筒修建井2</t>
-  </si>
-  <si>
-    <t>修建井3</t>
-  </si>
-  <si>
-    <t>17,</t>
-  </si>
-  <si>
-    <t>消耗200木头，200砖石，200瓦筒，200石槽修建井2</t>
-  </si>
-  <si>
-    <t>RewardID</t>
-  </si>
-  <si>
-    <t>RewardType</t>
-  </si>
-  <si>
-    <t>ItemID</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>300,</t>
-  </si>
-  <si>
-    <t>500,</t>
   </si>
   <si>
     <t>1000,</t>
@@ -477,14 +447,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -951,10 +914,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -963,33 +926,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -999,97 +965,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1097,7 +1060,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1162,8 +1125,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I27" totalsRowShown="0">
-  <autoFilter ref="A1:I27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I23" totalsRowShown="0">
+  <autoFilter ref="A1:I23"/>
   <tableColumns count="9">
     <tableColumn id="1" name="TaskID"/>
     <tableColumn id="2" name="Name"/>
@@ -1450,10 +1413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1709,7 +1672,7 @@
         <v>31</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1917,25 +1880,25 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>4001</v>
+        <v>1005</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
       </c>
       <c r="C16">
-        <v>3003</v>
+        <v>2006</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H16" t="s">
         <v>54</v>
@@ -1946,13 +1909,13 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>1005</v>
+        <v>2007</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
       </c>
       <c r="C17">
-        <v>2006</v>
+        <v>4004</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1964,7 +1927,7 @@
         <v>11</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H17" t="s">
         <v>57</v>
@@ -1975,28 +1938,28 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>4002</v>
+        <v>2008</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C18">
-        <v>1005</v>
+        <v>2007</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
         <v>30</v>
       </c>
       <c r="G18">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="H18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I18">
         <v>-1</v>
@@ -2004,28 +1967,28 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C19">
-        <v>4002</v>
+        <v>2007</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
       </c>
       <c r="G19">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I19">
         <v>-1</v>
@@ -2033,28 +1996,28 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>4003</v>
+        <v>1008</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C20">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
       </c>
       <c r="G20">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="H20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I20">
         <v>-1</v>
@@ -2062,28 +2025,28 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>4004</v>
+        <v>1009</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C21">
-        <v>4003</v>
+        <v>1008</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
       </c>
       <c r="G21">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I21">
         <v>-1</v>
@@ -2091,28 +2054,28 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>2007</v>
+        <v>1010</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C22">
-        <v>4004</v>
+        <v>2008</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
       </c>
       <c r="G22">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="H22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I22">
         <v>-1</v>
@@ -2120,146 +2083,30 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>2008</v>
+        <v>1006</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C23">
-        <v>2007</v>
+        <v>4002</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24">
-        <v>1007</v>
-      </c>
-      <c r="B24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24">
-        <v>2007</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24">
-        <v>115</v>
-      </c>
-      <c r="H24" t="s">
-        <v>73</v>
-      </c>
-      <c r="I24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25">
-        <v>1008</v>
-      </c>
-      <c r="B25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25">
-        <v>1007</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25">
-        <v>116</v>
-      </c>
-      <c r="H25" t="s">
-        <v>76</v>
-      </c>
-      <c r="I25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26">
-        <v>1009</v>
-      </c>
-      <c r="B26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26">
-        <v>1008</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26">
-        <v>117</v>
-      </c>
-      <c r="H26" t="s">
-        <v>79</v>
-      </c>
-      <c r="I26">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27">
-        <v>1010</v>
-      </c>
-      <c r="B27" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27">
-        <v>2008</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
-        <v>82</v>
-      </c>
-      <c r="I27">
         <v>-1</v>
       </c>
     </row>
@@ -2279,7 +2126,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
@@ -2291,16 +2138,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2342,7 +2189,7 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2356,7 +2203,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2370,7 +2217,7 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2384,7 +2231,7 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2398,7 +2245,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2412,7 +2259,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2468,7 +2315,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2482,7 +2329,7 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2496,7 +2343,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2577,7 +2424,7 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -2591,7 +2438,7 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
@@ -2619,7 +2466,7 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -2633,7 +2480,7 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -2675,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
@@ -2689,7 +2536,7 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
@@ -2717,7 +2564,7 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
@@ -2731,7 +2578,7 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
@@ -2745,7 +2592,7 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>

--- a/Assets/Configs/RawTable/Task.xlsx
+++ b/Assets/Configs/RawTable/Task.xlsx
@@ -1416,7 +1416,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>

--- a/Assets/Configs/RawTable/Task.xlsx
+++ b/Assets/Configs/RawTable/Task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3CCF7F-9D81-4D28-8D2F-CB4174692CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA55DF2-F6E9-4CAD-A776-12E0C8BFB809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,10 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>6评定</t>
+          <t>6评定分数
+7人口
+8购买物品
+9购买每日特卖</t>
         </r>
       </text>
     </comment>
@@ -210,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="157">
   <si>
     <t>TaskID</t>
   </si>
@@ -263,9 +266,6 @@
     <t>7,</t>
   </si>
   <si>
-    <t>建造一个小型房屋</t>
-  </si>
-  <si>
     <t>移动建筑</t>
   </si>
   <si>
@@ -278,18 +278,9 @@
     <t>开垦两个农田</t>
   </si>
   <si>
-    <t>获取粮食</t>
-  </si>
-  <si>
     <t>10,</t>
   </si>
   <si>
-    <t>60,</t>
-  </si>
-  <si>
-    <t>获取60个粮食</t>
-  </si>
-  <si>
     <t>生产木材</t>
   </si>
   <si>
@@ -326,33 +317,15 @@
     <t>修建一个采石场</t>
   </si>
   <si>
-    <t>获得石头</t>
-  </si>
-  <si>
     <t>50,</t>
   </si>
   <si>
-    <t>获得50石头</t>
-  </si>
-  <si>
-    <t>建造马车</t>
-  </si>
-  <si>
     <t>3,</t>
   </si>
   <si>
-    <t>建造一辆马车</t>
-  </si>
-  <si>
-    <t>获得建材</t>
-  </si>
-  <si>
     <t>200,</t>
   </si>
   <si>
-    <t>继续修缮家园需要更多的木材</t>
-  </si>
-  <si>
     <t>修建民居-大型</t>
   </si>
   <si>
@@ -371,15 +344,9 @@
     <t>修建一个砖厂</t>
   </si>
   <si>
-    <t>获得砖石</t>
-  </si>
-  <si>
     <t>5,</t>
   </si>
   <si>
-    <t>获得100石砖</t>
-  </si>
-  <si>
     <t>修建商铺</t>
   </si>
   <si>
@@ -389,30 +356,15 @@
     <t>修建一个商铺</t>
   </si>
   <si>
-    <t>修建井1</t>
-  </si>
-  <si>
     <t>15,</t>
   </si>
   <si>
-    <t>修建井2</t>
-  </si>
-  <si>
     <t>16,</t>
   </si>
   <si>
-    <t>修建井3</t>
-  </si>
-  <si>
     <t>17,</t>
   </si>
   <si>
-    <t>修建宝塔</t>
-  </si>
-  <si>
-    <t>修建地标宝塔</t>
-  </si>
-  <si>
     <t>RewardID</t>
   </si>
   <si>
@@ -452,10 +404,6 @@
     <t>9,</t>
   </si>
   <si>
-    <t>修建民居-小型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>50,</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -520,7 +468,277 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>80,</t>
+    <t>1,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级一个林场和两个农田到2级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级官府到2级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初具规模</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在商城中购买任意物品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买物品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买任意每日特卖物品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日特卖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺开张</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修建一个小摊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售任意物品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售获得3000金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售物品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发家致富</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口达到20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级官府到3级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修建三井</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,16,17,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下分三条支线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21XX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22XX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>23XX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>井1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>井2</t>
+  </si>
+  <si>
+    <t>井3</t>
+  </si>
+  <si>
+    <t>完成上面三条支线才能修建三井，继续推主线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需加入升级许可证，防止资源够了直接升级，卡进度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高官府评定到较好等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需包装较好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修建房屋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修建民居</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造一个瓦房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市内有5个房屋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产砖石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产石材</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产木材</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疏通三井需要大量石材</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疏通三井需要大量砖石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疏通三井需要大量木材</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疏通三井需要大量金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产一定石材给居民用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产一定砖石给居民用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产一定木材给居民用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>官府需要一定的资金保证运转</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id 5xxx为每日任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市内有30个建筑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市内有15个生产建筑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集聚人口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁荣城市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -528,15 +746,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级一个林场和两个农田到2级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级官府到2级</t>
+    <t>工业地带</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏轼修建三井</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日繁荣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修建六和塔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修建地标六和塔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修建三潭映月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修建地标三潭映月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>31,</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -580,12 +818,36 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -639,20 +901,44 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -673,8 +959,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:I27" totalsRowShown="0">
-  <autoFilter ref="A1:I27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:I41" totalsRowShown="0">
+  <autoFilter ref="A1:I41" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TaskID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
@@ -961,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1009,768 +1295,1228 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1000</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>-1</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2">
         <v>104</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>-1</v>
       </c>
       <c r="J2">
         <f>_xlfn.MAXIFS(表1[TaskID],表1[TaskID],"&lt;2000")+1</f>
-        <v>1012</v>
+        <v>1300</v>
       </c>
       <c r="K2">
         <f>_xlfn.MAXIFS(表1[TaskID],表1[TaskID],"&lt;3000")+1</f>
-        <v>1012</v>
+        <v>2305</v>
       </c>
       <c r="L2">
         <f>_xlfn.MAXIFS(表1[TaskID],表1[TaskID],"&lt;4000")+1</f>
-        <v>1012</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>1001</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>1000</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2">
+        <v>109</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2">
+        <v>102</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1002</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1003</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1005</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="5">
+        <v>114</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1005</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1007</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1006</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1008</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1007</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="2">
+        <v>11</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1009</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1008</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>1010</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1009</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1011</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1010</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="2">
+        <v>110</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="2">
+        <v>102</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>1100</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1011</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7">
+        <v>112</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>1101</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1100</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>1102</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1101</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>1103</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1101</v>
+      </c>
+      <c r="D17" s="7">
+        <v>12</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1002</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4">
-        <v>1001</v>
-      </c>
-      <c r="D4">
+      <c r="L17" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>2101</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1101</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I18" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>2102</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2102</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="7">
+        <v>106</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I19" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>2103</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2103</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>2104</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="7">
+        <v>2104</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="7">
+        <v>115</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I21" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>2201</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1102</v>
+      </c>
+      <c r="D22" s="7">
+        <v>8</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>2202</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2201</v>
+      </c>
+      <c r="D23" s="7">
+        <v>9</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>2203</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="7">
+        <v>2202</v>
+      </c>
+      <c r="D24" s="7">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>102</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1003</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>1002</v>
-      </c>
-      <c r="D5">
+      <c r="E24" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>2204</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2203</v>
+      </c>
+      <c r="D25" s="7">
+        <v>10</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="7">
+        <v>103</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>2205</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2204</v>
+      </c>
+      <c r="D26" s="7">
+        <v>11</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="7">
+        <v>116</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I26" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>2301</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1103</v>
+      </c>
+      <c r="D27" s="7">
+        <v>7</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>2302</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2301</v>
+      </c>
+      <c r="D28" s="7">
+        <v>12</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I28" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>2303</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2302</v>
+      </c>
+      <c r="D29" s="7">
+        <v>12</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I29" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>2304</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2303</v>
+      </c>
+      <c r="D30" s="7">
+        <v>6</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G30" s="7">
+        <v>117</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I30" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>1104</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1101</v>
+      </c>
+      <c r="D31" s="7">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5">
+      <c r="E31" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I31" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>1105</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1104</v>
+      </c>
+      <c r="D32" s="7">
+        <v>5</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I32" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>1298</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="11">
+        <v>9999</v>
+      </c>
+      <c r="D33" s="11">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1004</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E33" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="11">
+        <v>11</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="I33" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>1299</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" s="11">
+        <v>9999</v>
+      </c>
+      <c r="D34" s="11">
+        <v>0</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="11">
+        <v>11</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="I34" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>5001</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="9">
+        <v>9999</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6">
-        <v>1003</v>
-      </c>
-      <c r="D6">
+      <c r="F35" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="9">
+        <v>-1</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>5002</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="9">
+        <v>9999</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>5003</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="9">
+        <v>9999</v>
+      </c>
+      <c r="D37" s="9">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6">
+      <c r="E37" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G37" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="I37" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>5004</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="9">
+        <v>9999</v>
+      </c>
+      <c r="D38" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>1005</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1004</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="3">
-        <v>114</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1006</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8">
-        <v>1005</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8">
+      <c r="E38" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="I38" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>5005</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="9">
+        <v>9999</v>
+      </c>
+      <c r="D39" s="9">
+        <v>3</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G39" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I39" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>5006</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="9">
+        <v>9999</v>
+      </c>
+      <c r="D40" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1007</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9">
-        <v>1006</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9">
-        <v>110</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9">
+      <c r="E40" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="I40" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>5007</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="9">
+        <v>9999</v>
+      </c>
+      <c r="D41" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1008</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10">
-        <v>1007</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10">
-        <v>11</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1009</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11">
-        <v>1008</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1010</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12">
-        <v>1009</v>
-      </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1011</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13">
-        <v>1010</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>4000</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14">
-        <v>9999</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14">
-        <v>106</v>
-      </c>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>4001</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15">
-        <v>9999</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15">
-        <v>114</v>
-      </c>
-      <c r="H15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>4002</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16">
-        <v>9999</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16">
-        <v>103</v>
-      </c>
-      <c r="H16" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>4003</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17">
-        <v>9999</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17">
-        <v>11</v>
-      </c>
-      <c r="H17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>4004</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18">
-        <v>9999</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>4005</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19">
-        <v>9999</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19">
-        <v>108</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>4006</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20">
-        <v>9999</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20">
-        <v>10</v>
-      </c>
-      <c r="H20" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>4007</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21">
-        <v>9999</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>52</v>
-      </c>
-      <c r="I21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>4008</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22">
-        <v>9999</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22">
-        <v>113</v>
-      </c>
-      <c r="H22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>4009</v>
-      </c>
-      <c r="B23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23">
-        <v>9999</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23">
-        <v>115</v>
-      </c>
-      <c r="H23" t="s">
-        <v>58</v>
-      </c>
-      <c r="I23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>4010</v>
-      </c>
-      <c r="B24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24">
-        <v>9999</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24">
-        <v>116</v>
-      </c>
-      <c r="H24" t="s">
-        <v>59</v>
-      </c>
-      <c r="I24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>4011</v>
-      </c>
-      <c r="B25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25">
-        <v>9999</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25">
+      <c r="E41" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G41" s="9">
         <v>117</v>
       </c>
-      <c r="H25" t="s">
-        <v>61</v>
-      </c>
-      <c r="I25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>4012</v>
-      </c>
-      <c r="B26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26">
-        <v>9999</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26">
-        <v>100</v>
-      </c>
-      <c r="H26" t="s">
-        <v>63</v>
-      </c>
-      <c r="I26">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>4013</v>
-      </c>
-      <c r="B27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27">
-        <v>9999</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27">
-        <v>11</v>
-      </c>
-      <c r="H27" t="s">
-        <v>66</v>
-      </c>
-      <c r="I27">
+      <c r="H41" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I41" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1801,16 +2547,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1818,13 +2564,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1832,13 +2578,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1846,13 +2592,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1860,13 +2606,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1874,13 +2620,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1888,13 +2634,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1902,13 +2648,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1916,13 +2662,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1930,13 +2676,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1944,13 +2690,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1958,13 +2704,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1972,13 +2718,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1986,13 +2732,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2000,13 +2746,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2017,7 +2763,7 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
@@ -2045,7 +2791,7 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -2059,7 +2805,7 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -2087,7 +2833,7 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -2101,7 +2847,7 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
@@ -2129,7 +2875,7 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -2143,7 +2889,7 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -2157,7 +2903,7 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
@@ -2185,7 +2931,7 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
@@ -2199,7 +2945,7 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
@@ -2213,7 +2959,7 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
@@ -2227,7 +2973,7 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
@@ -2241,7 +2987,7 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
@@ -2255,7 +3001,7 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>

--- a/Assets/Configs/RawTable/Task.xlsx
+++ b/Assets/Configs/RawTable/Task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300"/>
+    <workbookView windowWidth="30048" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="157">
   <si>
     <t>TaskID</t>
   </si>
@@ -237,394 +237,424 @@
     <t>修建民居</t>
   </si>
   <si>
+    <t>9,</t>
+  </si>
+  <si>
+    <t>建造一个瓦房</t>
+  </si>
+  <si>
+    <t>开垦农田</t>
+  </si>
+  <si>
+    <t>2,</t>
+  </si>
+  <si>
+    <t>开垦两个农田</t>
+  </si>
+  <si>
+    <t>生产木材</t>
+  </si>
+  <si>
+    <t>0,</t>
+  </si>
+  <si>
+    <t>50,</t>
+  </si>
+  <si>
+    <t>修建林场，生产50个木材</t>
+  </si>
+  <si>
+    <t>移动建筑</t>
+  </si>
+  <si>
+    <t>长按移动一个房屋</t>
+  </si>
+  <si>
+    <t>建造篱笆</t>
+  </si>
+  <si>
+    <t>14,</t>
+  </si>
+  <si>
+    <t>建造四个篱笆</t>
+  </si>
+  <si>
+    <t>旋转篱笆</t>
+  </si>
+  <si>
+    <t>将两侧的篱笆旋转90度，把房屋围起来</t>
+  </si>
+  <si>
+    <t>升级建筑</t>
+  </si>
+  <si>
+    <t>11,2,</t>
+  </si>
+  <si>
+    <t>1,2,</t>
+  </si>
+  <si>
+    <t>升级一个林场和两个农田到2级</t>
+  </si>
+  <si>
+    <t>升级房屋</t>
+  </si>
+  <si>
+    <t>升级两栋房屋</t>
+  </si>
+  <si>
+    <t>提高评定</t>
+  </si>
+  <si>
+    <t>70,</t>
+  </si>
+  <si>
+    <t>提高官府评定到较好等级</t>
+  </si>
+  <si>
+    <t>需包装较好</t>
+  </si>
+  <si>
+    <t>升级官府</t>
+  </si>
+  <si>
+    <t>升级官府到2级</t>
+  </si>
+  <si>
+    <t>需加入升级许可证，防止资源够了直接升级，卡进度</t>
+  </si>
+  <si>
+    <t>修建采石场</t>
+  </si>
+  <si>
+    <t>10,</t>
+  </si>
+  <si>
+    <t>修建一个采石场</t>
+  </si>
+  <si>
+    <t>以下分三条支线</t>
+  </si>
+  <si>
+    <t>修建砖厂</t>
+  </si>
+  <si>
+    <t>12,</t>
+  </si>
+  <si>
+    <t>修建一个砖厂</t>
+  </si>
+  <si>
+    <t>资源线</t>
+  </si>
+  <si>
+    <t>21XX</t>
+  </si>
+  <si>
+    <t>井1</t>
+  </si>
+  <si>
+    <t>修建商铺</t>
+  </si>
+  <si>
+    <t>13,</t>
+  </si>
+  <si>
+    <t>修建一个商铺</t>
+  </si>
+  <si>
+    <t>商城线</t>
+  </si>
+  <si>
+    <t>22XX</t>
+  </si>
+  <si>
+    <t>井2</t>
+  </si>
+  <si>
+    <t>修建房屋</t>
+  </si>
+  <si>
+    <t>5,</t>
+  </si>
+  <si>
+    <t>城市内有5个房屋</t>
+  </si>
+  <si>
+    <t>成就线</t>
+  </si>
+  <si>
+    <t>23XX</t>
+  </si>
+  <si>
+    <t>井3</t>
+  </si>
+  <si>
+    <t>生产石材</t>
+  </si>
+  <si>
+    <t>500,</t>
+  </si>
+  <si>
+    <t>疏通三井需要大量石材</t>
+  </si>
+  <si>
+    <t>生产砖石</t>
+  </si>
+  <si>
+    <t>300,</t>
+  </si>
+  <si>
+    <t>疏通三井需要大量砖石</t>
+  </si>
+  <si>
+    <t>1000,</t>
+  </si>
+  <si>
+    <t>疏通三井需要大量木材</t>
+  </si>
+  <si>
+    <t>获得金币</t>
+  </si>
+  <si>
+    <t>4000,</t>
+  </si>
+  <si>
+    <t>疏通三井需要大量金币</t>
+  </si>
+  <si>
+    <t>购买物品</t>
+  </si>
+  <si>
+    <t>在商城中购买任意物品</t>
+  </si>
+  <si>
+    <t>今日特卖</t>
+  </si>
+  <si>
+    <t>购买任意每日特卖物品</t>
+  </si>
+  <si>
+    <t>店铺开张</t>
+  </si>
+  <si>
+    <t>28,</t>
+  </si>
+  <si>
+    <t>修建一个小摊</t>
+  </si>
+  <si>
+    <t>出售物品</t>
+  </si>
+  <si>
+    <t>出售任意物品</t>
+  </si>
+  <si>
+    <t>发家致富</t>
+  </si>
+  <si>
+    <t>3000,</t>
+  </si>
+  <si>
+    <t>出售获得3000金币</t>
+  </si>
+  <si>
+    <t>集聚人口</t>
+  </si>
+  <si>
+    <t>20,</t>
+  </si>
+  <si>
+    <t>人口达到20</t>
+  </si>
+  <si>
+    <t>欣欣向荣</t>
+  </si>
+  <si>
+    <t>15,</t>
+  </si>
+  <si>
+    <t>城市内有15个生产建筑</t>
+  </si>
+  <si>
+    <t>初具规模</t>
+  </si>
+  <si>
+    <t>30,</t>
+  </si>
+  <si>
+    <t>城市内有30个建筑</t>
+  </si>
+  <si>
+    <t>繁荣城市</t>
+  </si>
+  <si>
+    <t>90,</t>
+  </si>
+  <si>
+    <t>提高官府评定到繁荣等级</t>
+  </si>
+  <si>
+    <t>修建三井</t>
+  </si>
+  <si>
+    <t>15,16,17,</t>
+  </si>
+  <si>
+    <t>1,1,1,</t>
+  </si>
+  <si>
+    <t>苏轼修建三井</t>
+  </si>
+  <si>
+    <t>完成上面三条支线才能修建三井，继续推主线</t>
+  </si>
+  <si>
+    <t>升级官府到3级</t>
+  </si>
+  <si>
+    <t>修建三潭映月</t>
+  </si>
+  <si>
+    <t>31,</t>
+  </si>
+  <si>
+    <t>修建地标三潭映月</t>
+  </si>
+  <si>
+    <t>修建六和塔</t>
+  </si>
+  <si>
+    <t>修建地标六和塔</t>
+  </si>
+  <si>
+    <t>修建安乐坊</t>
+  </si>
+  <si>
+    <t>修建地标安乐坊</t>
+  </si>
+  <si>
+    <t>修建书院</t>
+  </si>
+  <si>
+    <t>修建地标书院</t>
+  </si>
+  <si>
+    <t>修建酒楼</t>
+  </si>
+  <si>
+    <t>修建地标酒楼</t>
+  </si>
+  <si>
+    <t>修建民居-中型</t>
+  </si>
+  <si>
+    <t>6,9,</t>
+  </si>
+  <si>
+    <t>2,2,</t>
+  </si>
+  <si>
+    <t>修建两个中型民居1和中型民居2</t>
+  </si>
+  <si>
+    <t>id 5xxx为每日任务</t>
+  </si>
+  <si>
+    <t>修建民居-大型</t>
+  </si>
+  <si>
+    <t>8,</t>
+  </si>
+  <si>
+    <t>修建一个大型民居</t>
+  </si>
+  <si>
+    <t>100,</t>
+  </si>
+  <si>
+    <t>生产一定石材给居民用</t>
+  </si>
+  <si>
+    <t>生产一定砖石给居民用</t>
+  </si>
+  <si>
+    <t>200,</t>
+  </si>
+  <si>
+    <t>生产一定木材给居民用</t>
+  </si>
+  <si>
+    <t>官府需要一定的资金保证运转</t>
+  </si>
+  <si>
+    <t>今日繁荣</t>
+  </si>
+  <si>
+    <t>RewardID</t>
+  </si>
+  <si>
+    <t>RewardType</t>
+  </si>
+  <si>
+    <t>ItemID</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>800,</t>
+  </si>
+  <si>
+    <t>1500,</t>
+  </si>
+  <si>
+    <t>2000,</t>
+  </si>
+  <si>
+    <t>3,</t>
+  </si>
+  <si>
+    <t>6,</t>
+  </si>
+  <si>
     <t>7,</t>
   </si>
   <si>
-    <t>建造一个瓦房</t>
-  </si>
-  <si>
-    <t>开垦农田</t>
-  </si>
-  <si>
-    <t>2,</t>
-  </si>
-  <si>
-    <t>开垦两个农田</t>
-  </si>
-  <si>
-    <t>生产木材</t>
-  </si>
-  <si>
-    <t>0,</t>
-  </si>
-  <si>
-    <t>50,</t>
-  </si>
-  <si>
-    <t>修建林场，生产50个木材</t>
-  </si>
-  <si>
-    <t>移动建筑</t>
-  </si>
-  <si>
-    <t>长按移动一个房屋</t>
-  </si>
-  <si>
-    <t>建造篱笆</t>
-  </si>
-  <si>
-    <t>14,</t>
-  </si>
-  <si>
-    <t>建造四个篱笆</t>
-  </si>
-  <si>
-    <t>旋转篱笆</t>
-  </si>
-  <si>
-    <t>将两侧的篱笆旋转90度，把房屋围起来</t>
-  </si>
-  <si>
-    <t>升级建筑</t>
-  </si>
-  <si>
-    <t>11,2,</t>
-  </si>
-  <si>
-    <t>1,2,</t>
-  </si>
-  <si>
-    <t>升级一个林场和两个农田到2级</t>
-  </si>
-  <si>
-    <t>升级房屋</t>
-  </si>
-  <si>
-    <t>升级两栋房屋</t>
-  </si>
-  <si>
-    <t>提高评定</t>
-  </si>
-  <si>
-    <t>70,</t>
-  </si>
-  <si>
-    <t>提高官府评定到较好等级</t>
-  </si>
-  <si>
-    <t>需包装较好</t>
-  </si>
-  <si>
-    <t>升级官府</t>
-  </si>
-  <si>
-    <t>升级官府到2级</t>
-  </si>
-  <si>
-    <t>需加入升级许可证，防止资源够了直接升级，卡进度</t>
-  </si>
-  <si>
-    <t>修建采石场</t>
-  </si>
-  <si>
-    <t>10,</t>
-  </si>
-  <si>
-    <t>修建一个采石场</t>
-  </si>
-  <si>
-    <t>以下分三条支线</t>
-  </si>
-  <si>
-    <t>修建砖厂</t>
-  </si>
-  <si>
-    <t>12,</t>
-  </si>
-  <si>
-    <t>修建一个砖厂</t>
-  </si>
-  <si>
-    <t>资源线</t>
-  </si>
-  <si>
-    <t>21XX</t>
-  </si>
-  <si>
-    <t>井1</t>
-  </si>
-  <si>
-    <t>修建商铺</t>
-  </si>
-  <si>
-    <t>13,</t>
-  </si>
-  <si>
-    <t>修建一个商铺</t>
-  </si>
-  <si>
-    <t>商城线</t>
-  </si>
-  <si>
-    <t>22XX</t>
-  </si>
-  <si>
-    <t>井2</t>
-  </si>
-  <si>
-    <t>修建房屋</t>
-  </si>
-  <si>
-    <t>5,</t>
-  </si>
-  <si>
-    <t>城市内有5个房屋</t>
-  </si>
-  <si>
-    <t>成就线</t>
-  </si>
-  <si>
-    <t>23XX</t>
-  </si>
-  <si>
-    <t>井3</t>
-  </si>
-  <si>
-    <t>生产石材</t>
-  </si>
-  <si>
-    <t>500,</t>
-  </si>
-  <si>
-    <t>疏通三井需要大量石材</t>
-  </si>
-  <si>
-    <t>生产砖石</t>
-  </si>
-  <si>
-    <t>300,</t>
-  </si>
-  <si>
-    <t>疏通三井需要大量砖石</t>
-  </si>
-  <si>
-    <t>1000,</t>
-  </si>
-  <si>
-    <t>疏通三井需要大量木材</t>
-  </si>
-  <si>
-    <t>获得金币</t>
-  </si>
-  <si>
-    <t>4000,</t>
-  </si>
-  <si>
-    <t>疏通三井需要大量金币</t>
-  </si>
-  <si>
-    <t>购买物品</t>
-  </si>
-  <si>
-    <t>在商城中购买任意物品</t>
-  </si>
-  <si>
-    <t>今日特卖</t>
-  </si>
-  <si>
-    <t>购买任意每日特卖物品</t>
-  </si>
-  <si>
-    <t>店铺开张</t>
-  </si>
-  <si>
-    <t>28,</t>
-  </si>
-  <si>
-    <t>修建一个小摊</t>
-  </si>
-  <si>
-    <t>出售物品</t>
-  </si>
-  <si>
-    <t>出售任意物品</t>
-  </si>
-  <si>
-    <t>发家致富</t>
-  </si>
-  <si>
-    <t>3000,</t>
-  </si>
-  <si>
-    <t>出售获得3000金币</t>
-  </si>
-  <si>
-    <t>集聚人口</t>
-  </si>
-  <si>
-    <t>20,</t>
-  </si>
-  <si>
-    <t>人口达到20</t>
-  </si>
-  <si>
-    <t>欣欣向荣</t>
-  </si>
-  <si>
-    <t>15,</t>
-  </si>
-  <si>
-    <t>城市内有15个生产建筑</t>
-  </si>
-  <si>
-    <t>初具规模</t>
-  </si>
-  <si>
-    <t>30,</t>
-  </si>
-  <si>
-    <t>城市内有30个建筑</t>
-  </si>
-  <si>
-    <t>繁荣城市</t>
-  </si>
-  <si>
-    <t>90,</t>
-  </si>
-  <si>
-    <t>提高官府评定到繁荣等级</t>
-  </si>
-  <si>
-    <t>修建三井</t>
-  </si>
-  <si>
-    <t>15,16,17,</t>
-  </si>
-  <si>
-    <t>1,1,1,</t>
-  </si>
-  <si>
-    <t>苏轼修建三井</t>
-  </si>
-  <si>
-    <t>完成上面三条支线才能修建三井，继续推主线</t>
-  </si>
-  <si>
-    <t>升级官府到3级</t>
-  </si>
-  <si>
-    <t>修建三潭映月</t>
-  </si>
-  <si>
-    <t>31,</t>
-  </si>
-  <si>
-    <t>修建地标三潭映月</t>
-  </si>
-  <si>
-    <t>修建六和塔</t>
-  </si>
-  <si>
-    <t>修建地标六和塔</t>
-  </si>
-  <si>
-    <t>修建安乐坊</t>
-  </si>
-  <si>
-    <t>修建地标安乐坊</t>
-  </si>
-  <si>
-    <t>修建书院</t>
-  </si>
-  <si>
-    <t>修建地标书院</t>
-  </si>
-  <si>
-    <t>修建酒楼</t>
-  </si>
-  <si>
-    <t>修建地标酒楼</t>
-  </si>
-  <si>
-    <t>修建民居-中型</t>
-  </si>
-  <si>
-    <t>6,9,</t>
-  </si>
-  <si>
-    <t>2,2,</t>
-  </si>
-  <si>
-    <t>修建两个中型民居1和中型民居2</t>
-  </si>
-  <si>
-    <t>id 5xxx为每日任务</t>
-  </si>
-  <si>
-    <t>修建民居-大型</t>
-  </si>
-  <si>
-    <t>8,</t>
-  </si>
-  <si>
-    <t>修建一个大型民居</t>
-  </si>
-  <si>
-    <t>100,</t>
-  </si>
-  <si>
-    <t>生产一定石材给居民用</t>
-  </si>
-  <si>
-    <t>生产一定砖石给居民用</t>
-  </si>
-  <si>
-    <t>200,</t>
-  </si>
-  <si>
-    <t>生产一定木材给居民用</t>
-  </si>
-  <si>
-    <t>官府需要一定的资金保证运转</t>
-  </si>
-  <si>
-    <t>今日繁荣</t>
-  </si>
-  <si>
-    <t>RewardID</t>
-  </si>
-  <si>
-    <t>RewardType</t>
-  </si>
-  <si>
-    <t>ItemID</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>800,</t>
-  </si>
-  <si>
-    <t>1500,</t>
-  </si>
-  <si>
-    <t>2000,</t>
-  </si>
-  <si>
-    <t>3,</t>
-  </si>
-  <si>
-    <t>6,</t>
-  </si>
-  <si>
-    <t>9,</t>
-  </si>
-  <si>
     <t>16,</t>
   </si>
   <si>
     <t>17,</t>
+  </si>
+  <si>
+    <t>18,</t>
+  </si>
+  <si>
+    <t>19,</t>
+  </si>
+  <si>
+    <t>21,</t>
+  </si>
+  <si>
+    <t>22,</t>
+  </si>
+  <si>
+    <t>23,</t>
+  </si>
+  <si>
+    <t>24,</t>
+  </si>
+  <si>
+    <t>25,</t>
+  </si>
+  <si>
+    <t>26,</t>
+  </si>
+  <si>
+    <t>27,</t>
+  </si>
+  <si>
+    <t>29,</t>
   </si>
 </sst>
 </file>
@@ -637,14 +667,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -803,7 +826,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -902,12 +925,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -921,12 +938,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,12 +961,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -969,12 +974,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1172,10 +1171,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1184,33 +1183,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1220,97 +1222,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1321,37 +1320,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1434,8 +1433,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:D33" totalsRowShown="0">
-  <autoFilter ref="A1:D33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:D47" totalsRowShown="0">
+  <autoFilter ref="A1:D47"/>
   <tableColumns count="4">
     <tableColumn id="1" name="RewardID"/>
     <tableColumn id="2" name="RewardType"/>
@@ -1706,8 +1705,8 @@
   <sheetPr/>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -3077,10 +3076,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
@@ -3406,7 +3405,7 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
@@ -3434,7 +3433,7 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -3549,6 +3548,202 @@
         <v>146</v>
       </c>
       <c r="D33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>118</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>119</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>120</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>121</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>122</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>123</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>124</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>126</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>127</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>128</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>129</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>130</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>131</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Assets/Configs/RawTable/Task.xlsx
+++ b/Assets/Configs/RawTable/Task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF07B8E-AA64-440E-B1AF-D1494C75DFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E8B6DB-B9B4-4371-A42F-B29F095421FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,9 +556,6 @@
     <t>修建酒楼</t>
   </si>
   <si>
-    <t>修建地标酒楼</t>
-  </si>
-  <si>
     <t>修建民居-中型</t>
   </si>
   <si>
@@ -691,6 +688,10 @@
   </si>
   <si>
     <t>升级两栋瓦房</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修建酒楼</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1153,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1378,7 +1379,7 @@
         <v>114</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I7" s="7">
         <v>-1</v>
@@ -1494,7 +1495,7 @@
         <v>-1</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I11" s="1">
         <v>7</v>
@@ -2153,7 +2154,7 @@
         <v>1200</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C33" s="5">
         <v>1105</v>
@@ -2162,16 +2163,16 @@
         <v>0</v>
       </c>
       <c r="E33" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>158</v>
-      </c>
       <c r="G33" s="5">
         <v>-1</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I33" s="5">
         <v>-1</v>
@@ -2199,8 +2200,8 @@
       <c r="G34" s="5">
         <v>-1</v>
       </c>
-      <c r="H34" s="5" t="s">
-        <v>117</v>
+      <c r="H34" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="I34" s="5">
         <v>-1</v>
@@ -2327,7 +2328,7 @@
         <v>5001</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C39" s="6">
         <v>9999</v>
@@ -2336,22 +2337,22 @@
         <v>0</v>
       </c>
       <c r="E39" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="G39" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G39" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H39" s="6" t="s">
+      <c r="I39" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J39" t="s">
         <v>121</v>
-      </c>
-      <c r="I39" s="6">
-        <v>-1</v>
-      </c>
-      <c r="J39" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2359,7 +2360,7 @@
         <v>5002</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C40" s="6">
         <v>9999</v>
@@ -2368,16 +2369,16 @@
         <v>0</v>
       </c>
       <c r="E40" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H40" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="I40" s="6">
         <v>-1</v>
@@ -2400,13 +2401,13 @@
         <v>10</v>
       </c>
       <c r="F41" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G41" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H41" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="G41" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="I41" s="6">
         <v>-1</v>
@@ -2429,13 +2430,13 @@
         <v>11</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G42" s="6">
         <v>-1</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I42" s="6">
         <v>-1</v>
@@ -2458,13 +2459,13 @@
         <v>23</v>
       </c>
       <c r="F43" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G43" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="G43" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="I43" s="6">
         <v>-1</v>
@@ -2493,7 +2494,7 @@
         <v>-1</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I44" s="6">
         <v>-1</v>
@@ -2504,7 +2505,7 @@
         <v>5007</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C45" s="6">
         <v>9999</v>
@@ -2555,16 +2556,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
         <v>133</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>134</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>135</v>
-      </c>
-      <c r="D1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2578,7 +2579,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2592,7 +2593,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2634,7 +2635,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2662,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2676,7 +2677,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2704,7 +2705,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2718,7 +2719,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2813,7 +2814,7 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -2855,7 +2856,7 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
@@ -2869,7 +2870,7 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
@@ -2883,7 +2884,7 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -2995,7 +2996,7 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
@@ -3009,7 +3010,7 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
@@ -3023,7 +3024,7 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
@@ -3037,7 +3038,7 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D35" t="s">
         <v>11</v>
@@ -3065,7 +3066,7 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
@@ -3079,7 +3080,7 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D38" t="s">
         <v>11</v>
@@ -3093,7 +3094,7 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
@@ -3107,7 +3108,7 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
@@ -3121,7 +3122,7 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
@@ -3135,7 +3136,7 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D42" t="s">
         <v>11</v>
@@ -3149,7 +3150,7 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D43" t="s">
         <v>11</v>
@@ -3177,7 +3178,7 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>

--- a/Assets/Configs/RawTable/Task.xlsx
+++ b/Assets/Configs/RawTable/Task.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E8B6DB-B9B4-4371-A42F-B29F095421FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EBD3C1-595F-4B7C-AE8E-AE890BC9DF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7632" yWindow="2892" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="186">
   <si>
     <t>TaskID</t>
   </si>
@@ -556,30 +556,12 @@
     <t>修建酒楼</t>
   </si>
   <si>
-    <t>修建民居-中型</t>
-  </si>
-  <si>
-    <t>6,9,</t>
-  </si>
-  <si>
-    <t>2,2,</t>
-  </si>
-  <si>
-    <t>修建两个中型民居1和中型民居2</t>
-  </si>
-  <si>
     <t>id 5xxx为每日任务</t>
   </si>
   <si>
-    <t>修建民居-大型</t>
-  </si>
-  <si>
     <t>8,</t>
   </si>
   <si>
-    <t>修建一个大型民居</t>
-  </si>
-  <si>
     <t>100,</t>
   </si>
   <si>
@@ -692,6 +674,130 @@
   </si>
   <si>
     <t>修建酒楼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修建民居-府宅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修建两个府宅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修建民居-宅院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修建两个宅院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2,2,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,100,100,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-99普通奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>99升级许可证</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-199建筑奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>200+复合奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>29,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>27,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,31,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产粮食</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产一定粮食给居民用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产铁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>150,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>120,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产一定铁给居民用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -812,7 +918,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -846,6 +952,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -864,8 +979,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:I45" totalsRowShown="0">
-  <autoFilter ref="A1:I45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:I47" totalsRowShown="0">
+  <autoFilter ref="A1:I47" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TaskID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
@@ -882,8 +997,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:D47" totalsRowShown="0">
-  <autoFilter ref="A1:D47" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:D55" totalsRowShown="0">
+  <autoFilter ref="A1:D55" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="RewardID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="RewardType"/>
@@ -1152,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1229,16 +1344,12 @@
       </c>
       <c r="J2">
         <f>_xlfn.MAXIFS(表1[TaskID],表1[TaskID],"&lt;2000")+1</f>
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="K2">
         <f>_xlfn.MAXIFS(表1[TaskID],表1[TaskID],"&lt;3000")+1</f>
         <v>2305</v>
       </c>
-      <c r="L2">
-        <f>_xlfn.MAXIFS(表1[TaskID],表1[TaskID],"&lt;4000")+1</f>
-        <v>2305</v>
-      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1379,7 +1490,7 @@
         <v>114</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="I7" s="7">
         <v>-1</v>
@@ -1495,7 +1606,7 @@
         <v>-1</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I11" s="1">
         <v>7</v>
@@ -1521,7 +1632,7 @@
         <v>38</v>
       </c>
       <c r="G12" s="1">
-        <v>-1</v>
+        <v>99</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>39</v>
@@ -1661,7 +1772,7 @@
         <v>56</v>
       </c>
       <c r="I16" s="4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J16" t="s">
         <v>57</v>
@@ -1699,7 +1810,7 @@
         <v>62</v>
       </c>
       <c r="I17" s="4">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="J17" t="s">
         <v>63</v>
@@ -1731,7 +1842,7 @@
         <v>67</v>
       </c>
       <c r="G18" s="4">
-        <v>-1</v>
+        <v>108</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>68</v>
@@ -1847,7 +1958,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="4">
-        <v>-1</v>
+        <v>124</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>78</v>
@@ -1876,7 +1987,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="4">
-        <v>-1</v>
+        <v>128</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>80</v>
@@ -1911,7 +2022,7 @@
         <v>83</v>
       </c>
       <c r="I24" s="4">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2021,7 +2132,7 @@
         <v>93</v>
       </c>
       <c r="G28" s="4">
-        <v>-1</v>
+        <v>125</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>94</v>
@@ -2108,7 +2219,7 @@
         <v>103</v>
       </c>
       <c r="G31" s="4">
-        <v>-1</v>
+        <v>99</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>104</v>
@@ -2154,7 +2265,7 @@
         <v>1200</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C33" s="5">
         <v>1105</v>
@@ -2163,16 +2274,16 @@
         <v>0</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G33" s="5">
-        <v>-1</v>
+        <v>129</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I33" s="5">
         <v>-1</v>
@@ -2191,46 +2302,46 @@
       <c r="D34" s="5">
         <v>0</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>23</v>
+      <c r="E34" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="5">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I34" s="5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>1210</v>
+        <v>1202</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C35" s="5">
-        <v>9999</v>
+        <v>1201</v>
       </c>
       <c r="D35" s="5">
         <v>0</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>108</v>
+      <c r="E35" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="5">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I35" s="5">
         <v>-1</v>
@@ -2238,28 +2349,28 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>1211</v>
+        <v>1203</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C36" s="5">
-        <v>9999</v>
+        <v>1202</v>
       </c>
       <c r="D36" s="5">
         <v>0</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>23</v>
+      <c r="E36" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="5">
-        <v>-1</v>
+        <v>201</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I36" s="5">
         <v>-1</v>
@@ -2267,19 +2378,19 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C37" s="5">
-        <v>9999</v>
+        <v>1203</v>
       </c>
       <c r="D37" s="5">
         <v>0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>11</v>
@@ -2288,7 +2399,7 @@
         <v>-1</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I37" s="5">
         <v>-1</v>
@@ -2296,13 +2407,13 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C38" s="5">
-        <v>9999</v>
+        <v>1203</v>
       </c>
       <c r="D38" s="5">
         <v>0</v>
@@ -2317,7 +2428,7 @@
         <v>-1</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I38" s="5">
         <v>-1</v>
@@ -2327,8 +2438,8 @@
       <c r="A39" s="6">
         <v>5001</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>117</v>
+      <c r="B39" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="C39" s="6">
         <v>9999</v>
@@ -2336,31 +2447,31 @@
       <c r="D39" s="6">
         <v>0</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>119</v>
+      <c r="E39" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="G39" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>120</v>
+        <v>20</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="I39" s="6">
         <v>-1</v>
       </c>
       <c r="J39" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>5002</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>122</v>
+      <c r="B40" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="C40" s="6">
         <v>9999</v>
@@ -2369,16 +2480,16 @@
         <v>0</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>11</v>
+        <v>118</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="G40" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>124</v>
+        <v>20</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="I40" s="6">
         <v>-1</v>
@@ -2400,14 +2511,14 @@
       <c r="E41" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>125</v>
+      <c r="F41" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="G41" s="6">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I41" s="6">
         <v>-1</v>
@@ -2429,14 +2540,14 @@
       <c r="E42" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>125</v>
+      <c r="F42" s="11" t="s">
+        <v>183</v>
       </c>
       <c r="G42" s="6">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I42" s="6">
         <v>-1</v>
@@ -2459,13 +2570,13 @@
         <v>23</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G43" s="6">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I43" s="6">
         <v>-1</v>
@@ -2484,17 +2595,17 @@
       <c r="D44" s="6">
         <v>2</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>23</v>
+      <c r="E44" s="11" t="s">
+        <v>185</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>72</v>
       </c>
       <c r="G44" s="6">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I44" s="6">
         <v>-1</v>
@@ -2505,7 +2616,7 @@
         <v>5007</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C45" s="6">
         <v>9999</v>
@@ -2520,12 +2631,70 @@
         <v>99</v>
       </c>
       <c r="G45" s="6">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I45" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>5008</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" s="6">
+        <v>9999</v>
+      </c>
+      <c r="D46" s="6">
+        <v>3</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G46" s="6">
+        <v>4</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="I46" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>5009</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" s="6">
+        <v>9999</v>
+      </c>
+      <c r="D47" s="6">
+        <v>3</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G47" s="6">
+        <v>16</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="I47" s="6">
         <v>-1</v>
       </c>
     </row>
@@ -2541,10 +2710,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2552,23 +2721,24 @@
     <col min="1" max="1" width="11.77734375" customWidth="1"/>
     <col min="2" max="2" width="14.21875" customWidth="1"/>
     <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2579,10 +2749,13 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2593,10 +2766,13 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2609,8 +2785,11 @@
       <c r="D4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2623,8 +2802,11 @@
       <c r="D5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2635,10 +2817,10 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2652,7 +2834,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2663,10 +2845,10 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2677,10 +2859,10 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -2694,7 +2876,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -2705,10 +2887,10 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -2719,10 +2901,10 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -2736,7 +2918,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2750,7 +2932,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -2764,99 +2946,99 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>100</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>101</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>102</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>103</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>104</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>105</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
+        <v>99</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
@@ -2864,13 +3046,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
@@ -2878,13 +3060,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -2892,13 +3074,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -2906,13 +3088,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
@@ -2920,13 +3102,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
@@ -2934,13 +3116,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
@@ -2948,13 +3130,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
@@ -2962,13 +3144,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
@@ -2976,13 +3158,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
@@ -2990,13 +3172,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
@@ -3004,13 +3186,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
@@ -3018,13 +3200,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
@@ -3032,13 +3214,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
         <v>11</v>
@@ -3046,13 +3228,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
         <v>11</v>
@@ -3060,13 +3242,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
@@ -3074,13 +3256,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D38" t="s">
         <v>11</v>
@@ -3088,13 +3270,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
@@ -3102,13 +3284,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
@@ -3116,13 +3298,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
@@ -3130,13 +3312,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="D42" t="s">
         <v>11</v>
@@ -3144,13 +3326,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D43" t="s">
         <v>11</v>
@@ -3158,13 +3340,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="D44" t="s">
         <v>11</v>
@@ -3172,13 +3354,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
@@ -3186,13 +3368,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="D46" t="s">
         <v>11</v>
@@ -3200,16 +3382,128 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
+        <v>125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>126</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>127</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>128</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>129</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>130</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>131</v>
       </c>
-      <c r="B47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
         <v>108</v>
       </c>
-      <c r="D47" t="s">
-        <v>11</v>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>200</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>201</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Configs/RawTable/Task.xlsx
+++ b/Assets/Configs/RawTable/Task.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EBD3C1-595F-4B7C-AE8E-AE890BC9DF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE75B32-04F0-4299-A07C-026EBF49F151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7632" yWindow="2892" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5820" yWindow="2856" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -46,6 +46,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>任务唯一id
@@ -63,6 +64,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>任务名称</t>
@@ -76,6 +78,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>前置任务id</t>
@@ -89,6 +92,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>任务种类：
@@ -112,6 +116,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>完成任务需操作的物品id</t>
@@ -125,6 +130,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>完成任务需操作的物品数量</t>
@@ -138,6 +144,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>奖励组id</t>
@@ -151,6 +158,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>任务详细描述</t>
@@ -174,6 +182,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0-100 货币物品奖励
@@ -189,6 +198,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>奖励种类：
@@ -203,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="189">
   <si>
     <t>TaskID</t>
   </si>
@@ -334,9 +344,6 @@
     <t>升级官府到2级</t>
   </si>
   <si>
-    <t>需加入升级许可证，防止资源够了直接升级，卡进度</t>
-  </si>
-  <si>
     <t>修建采石场</t>
   </si>
   <si>
@@ -409,395 +416,413 @@
     <t>500,</t>
   </si>
   <si>
+    <t>生产砖石</t>
+  </si>
+  <si>
+    <t>300,</t>
+  </si>
+  <si>
+    <t>疏通三井需要大量砖石</t>
+  </si>
+  <si>
+    <t>1000,</t>
+  </si>
+  <si>
+    <t>疏通三井需要大量木材</t>
+  </si>
+  <si>
+    <t>获得金币</t>
+  </si>
+  <si>
+    <t>4000,</t>
+  </si>
+  <si>
+    <t>疏通三井需要大量金币</t>
+  </si>
+  <si>
+    <t>购买物品</t>
+  </si>
+  <si>
+    <t>在商城中购买任意物品</t>
+  </si>
+  <si>
+    <t>今日特卖</t>
+  </si>
+  <si>
+    <t>购买任意每日特卖物品</t>
+  </si>
+  <si>
+    <t>店铺开张</t>
+  </si>
+  <si>
+    <t>28,</t>
+  </si>
+  <si>
+    <t>修建一个小摊</t>
+  </si>
+  <si>
+    <t>出售物品</t>
+  </si>
+  <si>
+    <t>出售任意物品</t>
+  </si>
+  <si>
+    <t>发家致富</t>
+  </si>
+  <si>
+    <t>3000,</t>
+  </si>
+  <si>
+    <t>出售获得3000金币</t>
+  </si>
+  <si>
+    <t>集聚人口</t>
+  </si>
+  <si>
+    <t>20,</t>
+  </si>
+  <si>
+    <t>人口达到20</t>
+  </si>
+  <si>
+    <t>欣欣向荣</t>
+  </si>
+  <si>
+    <t>15,</t>
+  </si>
+  <si>
+    <t>城市内有15个生产建筑</t>
+  </si>
+  <si>
+    <t>初具规模</t>
+  </si>
+  <si>
+    <t>30,</t>
+  </si>
+  <si>
+    <t>城市内有30个建筑</t>
+  </si>
+  <si>
+    <t>繁荣城市</t>
+  </si>
+  <si>
+    <t>90,</t>
+  </si>
+  <si>
+    <t>提高官府评定到繁荣等级</t>
+  </si>
+  <si>
+    <t>修建三井</t>
+  </si>
+  <si>
+    <t>15,16,17,</t>
+  </si>
+  <si>
+    <t>1,1,1,</t>
+  </si>
+  <si>
+    <t>苏轼修建三井</t>
+  </si>
+  <si>
+    <t>完成上面三条支线才能修建三井，继续推主线</t>
+  </si>
+  <si>
+    <t>升级官府到3级</t>
+  </si>
+  <si>
+    <t>31,</t>
+  </si>
+  <si>
+    <t>修建地标三潭映月</t>
+  </si>
+  <si>
+    <t>修建六和塔</t>
+  </si>
+  <si>
+    <t>修建地标六和塔</t>
+  </si>
+  <si>
+    <t>修建安乐坊</t>
+  </si>
+  <si>
+    <t>修建地标安乐坊</t>
+  </si>
+  <si>
+    <t>修建书院</t>
+  </si>
+  <si>
+    <t>修建地标书院</t>
+  </si>
+  <si>
+    <t>修建酒楼</t>
+  </si>
+  <si>
+    <t>id 5xxx为每日任务</t>
+  </si>
+  <si>
+    <t>8,</t>
+  </si>
+  <si>
+    <t>100,</t>
+  </si>
+  <si>
+    <t>生产一定石材给居民用</t>
+  </si>
+  <si>
+    <t>生产一定砖石给居民用</t>
+  </si>
+  <si>
+    <t>200,</t>
+  </si>
+  <si>
+    <t>生产一定木材给居民用</t>
+  </si>
+  <si>
+    <t>官府需要一定的资金保证运转</t>
+  </si>
+  <si>
+    <t>今日繁荣</t>
+  </si>
+  <si>
+    <t>RewardID</t>
+  </si>
+  <si>
+    <t>RewardType</t>
+  </si>
+  <si>
+    <t>ItemID</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>800,</t>
+  </si>
+  <si>
+    <t>1500,</t>
+  </si>
+  <si>
+    <t>2000,</t>
+  </si>
+  <si>
+    <t>3,</t>
+  </si>
+  <si>
+    <t>6,</t>
+  </si>
+  <si>
+    <t>7,</t>
+  </si>
+  <si>
+    <t>16,</t>
+  </si>
+  <si>
+    <t>17,</t>
+  </si>
+  <si>
+    <t>18,</t>
+  </si>
+  <si>
+    <t>19,</t>
+  </si>
+  <si>
+    <t>21,</t>
+  </si>
+  <si>
+    <t>22,</t>
+  </si>
+  <si>
+    <t>23,</t>
+  </si>
+  <si>
+    <t>24,</t>
+  </si>
+  <si>
+    <t>25,</t>
+  </si>
+  <si>
+    <t>26,</t>
+  </si>
+  <si>
+    <t>27,</t>
+  </si>
+  <si>
+    <t>29,</t>
+  </si>
+  <si>
+    <t>修建铁匠铺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造地标需要大量铁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>长按移动一个瓦房</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级两栋瓦房</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修建酒楼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修建民居-府宅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修建两个府宅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修建民居-宅院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修建两个宅院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2,2,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-99普通奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>99升级许可证</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-199建筑奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>200+复合奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>29,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>27,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,31,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产粮食</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产一定粮食给居民用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>150,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>120,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>99,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修建三潭映月</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产一定铁材给居民用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产铁材</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>600,50,50,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>疏通三井需要大量石材</t>
-  </si>
-  <si>
-    <t>生产砖石</t>
-  </si>
-  <si>
-    <t>300,</t>
-  </si>
-  <si>
-    <t>疏通三井需要大量砖石</t>
-  </si>
-  <si>
-    <t>1000,</t>
-  </si>
-  <si>
-    <t>疏通三井需要大量木材</t>
-  </si>
-  <si>
-    <t>获得金币</t>
-  </si>
-  <si>
-    <t>4000,</t>
-  </si>
-  <si>
-    <t>疏通三井需要大量金币</t>
-  </si>
-  <si>
-    <t>购买物品</t>
-  </si>
-  <si>
-    <t>在商城中购买任意物品</t>
-  </si>
-  <si>
-    <t>今日特卖</t>
-  </si>
-  <si>
-    <t>购买任意每日特卖物品</t>
-  </si>
-  <si>
-    <t>店铺开张</t>
-  </si>
-  <si>
-    <t>28,</t>
-  </si>
-  <si>
-    <t>修建一个小摊</t>
-  </si>
-  <si>
-    <t>出售物品</t>
-  </si>
-  <si>
-    <t>出售任意物品</t>
-  </si>
-  <si>
-    <t>发家致富</t>
-  </si>
-  <si>
-    <t>3000,</t>
-  </si>
-  <si>
-    <t>出售获得3000金币</t>
-  </si>
-  <si>
-    <t>集聚人口</t>
-  </si>
-  <si>
-    <t>20,</t>
-  </si>
-  <si>
-    <t>人口达到20</t>
-  </si>
-  <si>
-    <t>欣欣向荣</t>
-  </si>
-  <si>
-    <t>15,</t>
-  </si>
-  <si>
-    <t>城市内有15个生产建筑</t>
-  </si>
-  <si>
-    <t>初具规模</t>
-  </si>
-  <si>
-    <t>30,</t>
-  </si>
-  <si>
-    <t>城市内有30个建筑</t>
-  </si>
-  <si>
-    <t>繁荣城市</t>
-  </si>
-  <si>
-    <t>90,</t>
-  </si>
-  <si>
-    <t>提高官府评定到繁荣等级</t>
-  </si>
-  <si>
-    <t>修建三井</t>
-  </si>
-  <si>
-    <t>15,16,17,</t>
-  </si>
-  <si>
-    <t>1,1,1,</t>
-  </si>
-  <si>
-    <t>苏轼修建三井</t>
-  </si>
-  <si>
-    <t>完成上面三条支线才能修建三井，继续推主线</t>
-  </si>
-  <si>
-    <t>升级官府到3级</t>
-  </si>
-  <si>
-    <t>修建三潭映月</t>
-  </si>
-  <si>
-    <t>31,</t>
-  </si>
-  <si>
-    <t>修建地标三潭映月</t>
-  </si>
-  <si>
-    <t>修建六和塔</t>
-  </si>
-  <si>
-    <t>修建地标六和塔</t>
-  </si>
-  <si>
-    <t>修建安乐坊</t>
-  </si>
-  <si>
-    <t>修建地标安乐坊</t>
-  </si>
-  <si>
-    <t>修建书院</t>
-  </si>
-  <si>
-    <t>修建地标书院</t>
-  </si>
-  <si>
-    <t>修建酒楼</t>
-  </si>
-  <si>
-    <t>id 5xxx为每日任务</t>
-  </si>
-  <si>
-    <t>8,</t>
-  </si>
-  <si>
-    <t>100,</t>
-  </si>
-  <si>
-    <t>生产一定石材给居民用</t>
-  </si>
-  <si>
-    <t>生产一定砖石给居民用</t>
-  </si>
-  <si>
-    <t>200,</t>
-  </si>
-  <si>
-    <t>生产一定木材给居民用</t>
-  </si>
-  <si>
-    <t>官府需要一定的资金保证运转</t>
-  </si>
-  <si>
-    <t>今日繁荣</t>
-  </si>
-  <si>
-    <t>RewardID</t>
-  </si>
-  <si>
-    <t>RewardType</t>
-  </si>
-  <si>
-    <t>ItemID</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>800,</t>
-  </si>
-  <si>
-    <t>1500,</t>
-  </si>
-  <si>
-    <t>2000,</t>
-  </si>
-  <si>
-    <t>3,</t>
-  </si>
-  <si>
-    <t>6,</t>
-  </si>
-  <si>
-    <t>7,</t>
-  </si>
-  <si>
-    <t>16,</t>
-  </si>
-  <si>
-    <t>17,</t>
-  </si>
-  <si>
-    <t>18,</t>
-  </si>
-  <si>
-    <t>19,</t>
-  </si>
-  <si>
-    <t>21,</t>
-  </si>
-  <si>
-    <t>22,</t>
-  </si>
-  <si>
-    <t>23,</t>
-  </si>
-  <si>
-    <t>24,</t>
-  </si>
-  <si>
-    <t>25,</t>
-  </si>
-  <si>
-    <t>26,</t>
-  </si>
-  <si>
-    <t>27,</t>
-  </si>
-  <si>
-    <t>29,</t>
-  </si>
-  <si>
-    <t>修建铁匠铺</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造地标需要大量铁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>长按移动一个瓦房</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级两栋瓦房</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修建酒楼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修建民居-府宅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修建两个府宅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修建民居-宅院</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修建两个宅院</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,2,2,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,2,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,100,100,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-99普通奖励</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>99升级许可证</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-199建筑奖励</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>200+复合奖励</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>29,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>27,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,31,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产粮食</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产一定粮食给居民用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产铁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>150,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>120,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产一定铁给居民用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -817,6 +842,7 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -918,7 +944,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -959,6 +985,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1269,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1490,7 +1522,7 @@
         <v>114</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I7" s="7">
         <v>-1</v>
@@ -1606,7 +1638,7 @@
         <v>-1</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I11" s="1">
         <v>7</v>
@@ -1672,16 +1704,13 @@
       <c r="I13" s="1">
         <v>102</v>
       </c>
-      <c r="J13" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>1100</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="4">
         <v>1011</v>
@@ -1690,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>11</v>
@@ -1699,13 +1728,13 @@
         <v>112</v>
       </c>
       <c r="H14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J14" t="s">
         <v>46</v>
-      </c>
-      <c r="I14" s="4">
-        <v>-1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1713,7 +1742,7 @@
         <v>1101</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="4">
         <v>1100</v>
@@ -1722,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>11</v>
@@ -1731,19 +1760,19 @@
         <v>113</v>
       </c>
       <c r="H15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J15" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="4">
-        <v>-1</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>51</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>52</v>
-      </c>
-      <c r="L15" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1751,7 +1780,7 @@
         <v>1102</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="4">
         <v>1101</v>
@@ -1760,28 +1789,28 @@
         <v>0</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="I16" s="4">
         <v>8</v>
       </c>
       <c r="J16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" t="s">
         <v>57</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>58</v>
-      </c>
-      <c r="L16" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1789,7 +1818,7 @@
         <v>1103</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="4">
         <v>1101</v>
@@ -1801,25 +1830,25 @@
         <v>23</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="G17" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="I17" s="4">
         <v>4</v>
       </c>
       <c r="J17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" t="s">
         <v>63</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>64</v>
-      </c>
-      <c r="L17" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1827,7 +1856,7 @@
         <v>2101</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="4">
         <v>1101</v>
@@ -1839,13 +1868,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G18" s="4">
         <v>108</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>68</v>
+      <c r="H18" s="14" t="s">
+        <v>187</v>
       </c>
       <c r="I18" s="4">
         <v>-1</v>
@@ -1856,10 +1885,10 @@
         <v>2102</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C19" s="4">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="D19" s="4">
         <v>3</v>
@@ -1868,13 +1897,13 @@
         <v>11</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G19" s="4">
         <v>106</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I19" s="4">
         <v>-1</v>
@@ -1888,7 +1917,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="4">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
@@ -1897,13 +1926,13 @@
         <v>23</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G20" s="4">
         <v>-1</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I20" s="4">
         <v>-1</v>
@@ -1914,10 +1943,10 @@
         <v>2104</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C21" s="4">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D21" s="4">
         <v>2</v>
@@ -1926,13 +1955,13 @@
         <v>23</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G21" s="4">
         <v>115</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I21" s="4">
         <v>-1</v>
@@ -1943,7 +1972,7 @@
         <v>2201</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C22" s="4">
         <v>1102</v>
@@ -1961,7 +1990,7 @@
         <v>124</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I22" s="4">
         <v>-1</v>
@@ -1972,7 +2001,7 @@
         <v>2202</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C23" s="4">
         <v>2201</v>
@@ -1990,7 +2019,7 @@
         <v>128</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I23" s="4">
         <v>-1</v>
@@ -2001,7 +2030,7 @@
         <v>2203</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C24" s="4">
         <v>2202</v>
@@ -2010,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>11</v>
@@ -2019,7 +2048,7 @@
         <v>-1</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I24" s="4">
         <v>9</v>
@@ -2030,7 +2059,7 @@
         <v>2204</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C25" s="4">
         <v>2203</v>
@@ -2048,7 +2077,7 @@
         <v>103</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25" s="4">
         <v>-1</v>
@@ -2059,7 +2088,7 @@
         <v>2205</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C26" s="4">
         <v>2204</v>
@@ -2071,13 +2100,13 @@
         <v>23</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G26" s="4">
         <v>116</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I26" s="4">
         <v>-1</v>
@@ -2088,7 +2117,7 @@
         <v>2301</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C27" s="4">
         <v>1103</v>
@@ -2100,13 +2129,13 @@
         <v>23</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G27" s="4">
         <v>-1</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I27" s="4">
         <v>-1</v>
@@ -2117,7 +2146,7 @@
         <v>2302</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C28" s="4">
         <v>2301</v>
@@ -2129,13 +2158,13 @@
         <v>11</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G28" s="4">
         <v>125</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I28" s="4">
         <v>-1</v>
@@ -2146,7 +2175,7 @@
         <v>2303</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C29" s="4">
         <v>2302</v>
@@ -2154,17 +2183,17 @@
       <c r="D29" s="4">
         <v>12</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>23</v>
+      <c r="E29" s="15" t="s">
+        <v>188</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G29" s="4">
         <v>-1</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I29" s="4">
         <v>-1</v>
@@ -2175,7 +2204,7 @@
         <v>2304</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C30" s="4">
         <v>2303</v>
@@ -2187,13 +2216,13 @@
         <v>23</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G30" s="4">
         <v>117</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I30" s="4">
         <v>-1</v>
@@ -2204,7 +2233,7 @@
         <v>1104</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C31" s="4">
         <v>1101</v>
@@ -2213,22 +2242,22 @@
         <v>0</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G31" s="4">
         <v>99</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I31" s="4">
         <v>-1</v>
       </c>
       <c r="J31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2254,7 +2283,7 @@
         <v>-1</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I32" s="4">
         <v>-1</v>
@@ -2265,7 +2294,7 @@
         <v>1200</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C33" s="5">
         <v>1105</v>
@@ -2274,16 +2303,16 @@
         <v>0</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G33" s="5">
         <v>129</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I33" s="5">
         <v>-1</v>
@@ -2294,7 +2323,7 @@
         <v>1201</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C34" s="5">
         <v>1200</v>
@@ -2303,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>11</v>
@@ -2312,7 +2341,7 @@
         <v>26</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I34" s="5">
         <v>5</v>
@@ -2323,7 +2352,7 @@
         <v>1202</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C35" s="5">
         <v>1201</v>
@@ -2332,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>11</v>
@@ -2341,7 +2370,7 @@
         <v>27</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I35" s="5">
         <v>-1</v>
@@ -2352,7 +2381,7 @@
         <v>1203</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C36" s="5">
         <v>1202</v>
@@ -2361,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>11</v>
@@ -2370,7 +2399,7 @@
         <v>201</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I36" s="5">
         <v>-1</v>
@@ -2380,8 +2409,8 @@
       <c r="A37" s="5">
         <v>1210</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>107</v>
+      <c r="B37" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="C37" s="5">
         <v>1203</v>
@@ -2390,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>11</v>
@@ -2399,7 +2428,7 @@
         <v>-1</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I37" s="5">
         <v>-1</v>
@@ -2410,7 +2439,7 @@
         <v>1211</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C38" s="5">
         <v>1203</v>
@@ -2428,7 +2457,7 @@
         <v>-1</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I38" s="5">
         <v>-1</v>
@@ -2439,7 +2468,7 @@
         <v>5001</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C39" s="6">
         <v>9999</v>
@@ -2448,22 +2477,22 @@
         <v>0</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G39" s="6">
         <v>20</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I39" s="6">
         <v>-1</v>
       </c>
       <c r="J39" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2471,7 +2500,7 @@
         <v>5002</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C40" s="6">
         <v>9999</v>
@@ -2480,16 +2509,16 @@
         <v>0</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G40" s="6">
         <v>20</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I40" s="6">
         <v>-1</v>
@@ -2500,7 +2529,7 @@
         <v>5003</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C41" s="6">
         <v>9999</v>
@@ -2512,13 +2541,13 @@
         <v>10</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G41" s="6">
         <v>13</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I41" s="6">
         <v>-1</v>
@@ -2529,7 +2558,7 @@
         <v>5004</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C42" s="6">
         <v>9999</v>
@@ -2541,13 +2570,13 @@
         <v>11</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G42" s="6">
         <v>19</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I42" s="6">
         <v>-1</v>
@@ -2570,13 +2599,13 @@
         <v>23</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G43" s="6">
         <v>18</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I43" s="6">
         <v>-1</v>
@@ -2586,8 +2615,8 @@
       <c r="A44" s="6">
         <v>5006</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>74</v>
+      <c r="B44" s="11" t="s">
+        <v>184</v>
       </c>
       <c r="C44" s="6">
         <v>9999</v>
@@ -2596,16 +2625,16 @@
         <v>2</v>
       </c>
       <c r="E44" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F44" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="F44" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="G44" s="6">
         <v>11</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I44" s="6">
         <v>-1</v>
@@ -2616,7 +2645,7 @@
         <v>5007</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C45" s="6">
         <v>9999</v>
@@ -2628,13 +2657,13 @@
         <v>23</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G45" s="6">
         <v>200</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I45" s="6">
         <v>-1</v>
@@ -2645,7 +2674,7 @@
         <v>5008</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C46" s="6">
         <v>9999</v>
@@ -2654,16 +2683,16 @@
         <v>3</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G46" s="6">
         <v>4</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I46" s="6">
         <v>-1</v>
@@ -2674,7 +2703,7 @@
         <v>5009</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C47" s="6">
         <v>9999</v>
@@ -2683,16 +2712,16 @@
         <v>3</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G47" s="6">
         <v>16</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I47" s="6">
         <v>-1</v>
@@ -2712,8 +2741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2726,16 +2755,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" t="s">
         <v>126</v>
-      </c>
-      <c r="B1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2749,10 +2778,10 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2766,10 +2795,10 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2783,10 +2812,10 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2800,10 +2829,10 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2817,7 +2846,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2831,7 +2860,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2845,7 +2874,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2859,7 +2888,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2887,7 +2916,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2901,7 +2930,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2915,7 +2944,7 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2929,7 +2958,7 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2943,7 +2972,7 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2951,13 +2980,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>160</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2965,13 +2994,13 @@
         <v>17</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>160</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2979,13 +3008,13 @@
         <v>18</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>160</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2993,13 +3022,13 @@
         <v>19</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>160</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3007,13 +3036,13 @@
         <v>20</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3021,13 +3050,13 @@
         <v>99</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3080,7 +3109,7 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -3108,7 +3137,7 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
@@ -3122,7 +3151,7 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
@@ -3136,7 +3165,7 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
@@ -3150,7 +3179,7 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
@@ -3178,7 +3207,7 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
@@ -3206,7 +3235,7 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
@@ -3220,7 +3249,7 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
         <v>11</v>
@@ -3248,7 +3277,7 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
@@ -3262,7 +3291,7 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D38" t="s">
         <v>11</v>
@@ -3276,7 +3305,7 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
@@ -3290,7 +3319,7 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
@@ -3304,7 +3333,7 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
@@ -3318,7 +3347,7 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D42" t="s">
         <v>11</v>
@@ -3332,7 +3361,7 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D43" t="s">
         <v>11</v>
@@ -3346,7 +3375,7 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D44" t="s">
         <v>11</v>
@@ -3360,7 +3389,7 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
@@ -3374,7 +3403,7 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D46" t="s">
         <v>11</v>
@@ -3388,7 +3417,7 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D47" t="s">
         <v>11</v>
@@ -3402,7 +3431,7 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D48" t="s">
         <v>11</v>
@@ -3416,7 +3445,7 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D49" t="s">
         <v>11</v>
@@ -3430,7 +3459,7 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D50" t="s">
         <v>11</v>
@@ -3444,7 +3473,7 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D51" t="s">
         <v>11</v>
@@ -3458,7 +3487,7 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D52" t="s">
         <v>11</v>
@@ -3472,7 +3501,7 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D53" t="s">
         <v>11</v>
@@ -3483,13 +3512,13 @@
         <v>200</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3497,13 +3526,13 @@
         <v>201</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Configs/RawTable/Task.xlsx
+++ b/Assets/Configs/RawTable/Task.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE75B32-04F0-4299-A07C-026EBF49F151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A95AAC-D774-42C4-82D0-2D3490C005D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="2856" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5088" yWindow="2724" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -1301,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1403,7 +1403,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="1">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>15</v>
@@ -1417,7 +1417,7 @@
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
         <v>1001</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1446,7 +1446,7 @@
         <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>1002</v>
@@ -1455,19 +1455,19 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G5" s="1">
         <v>-1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I5" s="1">
-        <v>3</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2286,7 +2286,7 @@
         <v>104</v>
       </c>
       <c r="I32" s="4">
-        <v>-1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">

--- a/Assets/Configs/RawTable/Task.xlsx
+++ b/Assets/Configs/RawTable/Task.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A95AAC-D774-42C4-82D0-2D3490C005D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDED3B6D-CC62-4C75-B286-61380E06FEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5088" yWindow="2724" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5436" yWindow="3072" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -1301,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2280,7 +2280,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="4">
-        <v>-1</v>
+        <v>130</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>104</v>
@@ -2338,7 +2338,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="5">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>151</v>
@@ -2367,7 +2367,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="5">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>110</v>
@@ -2741,7 +2741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
